--- a/web-platform_22_01_dev/data/modules/actions.xlsx
+++ b/web-platform_22_01_dev/data/modules/actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EB32E-F8B6-4897-808A-9941631947DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36071491-C76B-4649-B729-734B2DEE7C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>ТИП:</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>account_notification</t>
+  </si>
+  <si>
+    <t>section_study</t>
+  </si>
+  <si>
+    <t>Новости, Обучение</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,10 +700,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +722,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +733,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +744,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,21 +755,21 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +777,10 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +788,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,10 +799,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +810,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +821,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +832,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +843,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,10 +854,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +865,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +876,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,10 +887,10 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,10 +898,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,10 +909,10 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,21 +931,21 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +953,10 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +964,10 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,10 +975,10 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,10 +986,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,9 +997,20 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>62</v>
       </c>
     </row>

--- a/web-platform_22_01_dev/data/modules/actions.xlsx
+++ b/web-platform_22_01_dev/data/modules/actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36071491-C76B-4649-B729-734B2DEE7C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2A315-460C-485E-A90C-9088AD570E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,229 +42,229 @@
     <t>Функционал модулей</t>
   </si>
   <si>
+    <t>Функционал пользователя</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Модуль</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>module_profile</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>module_news</t>
+  </si>
+  <si>
+    <t>Развитие</t>
+  </si>
+  <si>
+    <t>module_progress</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>module_buhgalteria</t>
+  </si>
+  <si>
+    <t>Служба управления персоналом</t>
+  </si>
+  <si>
+    <t>module_hr</t>
+  </si>
+  <si>
+    <t>Секция</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль</t>
+  </si>
+  <si>
+    <t>section_self_profile</t>
+  </si>
+  <si>
+    <t>Профиль, Основной функционал</t>
+  </si>
+  <si>
+    <t>section_main</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей</t>
+  </si>
+  <si>
+    <t>section_idea</t>
+  </si>
+  <si>
+    <t>Развитие, Рационализаторство</t>
+  </si>
+  <si>
+    <t>section_rational</t>
+  </si>
+  <si>
+    <t>Развитие, Проектная деятельность</t>
+  </si>
+  <si>
+    <t>section_project</t>
+  </si>
+  <si>
+    <t>Бухгалтерия, Сектор расчёта заработной платы</t>
+  </si>
+  <si>
+    <t>section_zarplata</t>
+  </si>
+  <si>
+    <t>Cлужба управления персоналом, Отдел кадров</t>
+  </si>
+  <si>
+    <t>section_hr</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Cлужба управления персоналом, Отдел кадров, Вакансии</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>Бухгалтерия, Сектор расчёта заработной платы, Расчётный лист</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>account_profile</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Восстановление пароля</t>
+  </si>
+  <si>
+    <t>account_recover_password</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Вход</t>
+  </si>
+  <si>
+    <t>account_login</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Выход</t>
+  </si>
+  <si>
+    <t>account_logout</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Изменение пароля</t>
+  </si>
+  <si>
+    <t>account_change_password</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Изменение профиля</t>
+  </si>
+  <si>
+    <t>account_change_profile</t>
+  </si>
+  <si>
+    <t>Вспомогательное</t>
+  </si>
+  <si>
+    <t>Пользователи, создание</t>
+  </si>
+  <si>
+    <t>account_create_or_change_accounts</t>
+  </si>
+  <si>
+    <t>Профиль, Основной функционал, Создание уведомления</t>
+  </si>
+  <si>
+    <t>account_create_notification</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Изменение видимости идеи</t>
+  </si>
+  <si>
+    <t>idea_change_visibility</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Добавление комментария</t>
+  </si>
+  <si>
+    <t>idea_comment</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Добавление рейтинга</t>
+  </si>
+  <si>
+    <t>idea_like</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Модератор банка идей</t>
+  </si>
+  <si>
+    <t>idea_moderator</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Изменение идеи</t>
+  </si>
+  <si>
+    <t>idea_change</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Список идей</t>
+  </si>
+  <si>
+    <t>idea_list</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Рейтинг идей</t>
+  </si>
+  <si>
+    <t>idea_rating</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Просмотр идеи</t>
+  </si>
+  <si>
+    <t>idea_view</t>
+  </si>
+  <si>
+    <t>Развитие, Банк идей, Добавить идею</t>
+  </si>
+  <si>
+    <t>idea_create</t>
+  </si>
+  <si>
+    <t>Профиль, Личный профиль, Личный профиль</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Профиль, Основной функционал, Домашняя страница</t>
+  </si>
+  <si>
+    <t>Профиль, Основной функционал, Уведомления</t>
+  </si>
+  <si>
+    <t>account_notification</t>
+  </si>
+  <si>
+    <t>section_study</t>
+  </si>
+  <si>
+    <t>Новости, Обучение</t>
+  </si>
+  <si>
     <t>module_modules</t>
-  </si>
-  <si>
-    <t>Функционал пользователя</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Модуль</t>
-  </si>
-  <si>
-    <t>Профиль</t>
-  </si>
-  <si>
-    <t>module_profile</t>
-  </si>
-  <si>
-    <t>Новости</t>
-  </si>
-  <si>
-    <t>module_news</t>
-  </si>
-  <si>
-    <t>Развитие</t>
-  </si>
-  <si>
-    <t>module_progress</t>
-  </si>
-  <si>
-    <t>Бухгалтерия</t>
-  </si>
-  <si>
-    <t>module_buhgalteria</t>
-  </si>
-  <si>
-    <t>Служба управления персоналом</t>
-  </si>
-  <si>
-    <t>module_hr</t>
-  </si>
-  <si>
-    <t>Секция</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль</t>
-  </si>
-  <si>
-    <t>section_self_profile</t>
-  </si>
-  <si>
-    <t>Профиль, Основной функционал</t>
-  </si>
-  <si>
-    <t>section_main</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей</t>
-  </si>
-  <si>
-    <t>section_idea</t>
-  </si>
-  <si>
-    <t>Развитие, Рационализаторство</t>
-  </si>
-  <si>
-    <t>section_rational</t>
-  </si>
-  <si>
-    <t>Развитие, Проектная деятельность</t>
-  </si>
-  <si>
-    <t>section_project</t>
-  </si>
-  <si>
-    <t>Бухгалтерия, Сектор расчёта заработной платы</t>
-  </si>
-  <si>
-    <t>section_zarplata</t>
-  </si>
-  <si>
-    <t>Cлужба управления персоналом, Отдел кадров</t>
-  </si>
-  <si>
-    <t>section_hr</t>
-  </si>
-  <si>
-    <t>Компонент</t>
-  </si>
-  <si>
-    <t>Cлужба управления персоналом, Отдел кадров, Вакансии</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
-    <t>Бухгалтерия, Сектор расчёта заработной платы, Расчётный лист</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>account_profile</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Восстановление пароля</t>
-  </si>
-  <si>
-    <t>account_recover_password</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Вход</t>
-  </si>
-  <si>
-    <t>account_login</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Выход</t>
-  </si>
-  <si>
-    <t>account_logout</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Изменение пароля</t>
-  </si>
-  <si>
-    <t>account_change_password</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Изменение профиля</t>
-  </si>
-  <si>
-    <t>account_change_profile</t>
-  </si>
-  <si>
-    <t>Вспомогательное</t>
-  </si>
-  <si>
-    <t>Пользователи, создание</t>
-  </si>
-  <si>
-    <t>account_create_or_change_accounts</t>
-  </si>
-  <si>
-    <t>Профиль, Основной функционал, Создание уведомления</t>
-  </si>
-  <si>
-    <t>account_create_notification</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Изменение видимости идеи</t>
-  </si>
-  <si>
-    <t>idea_change_visibility</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Добавление комментария</t>
-  </si>
-  <si>
-    <t>idea_comment</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Добавление рейтинга</t>
-  </si>
-  <si>
-    <t>idea_like</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Модератор банка идей</t>
-  </si>
-  <si>
-    <t>idea_moderator</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Изменение идеи</t>
-  </si>
-  <si>
-    <t>idea_change</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Список идей</t>
-  </si>
-  <si>
-    <t>idea_list</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Рейтинг идей</t>
-  </si>
-  <si>
-    <t>idea_rating</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Просмотр идеи</t>
-  </si>
-  <si>
-    <t>idea_view</t>
-  </si>
-  <si>
-    <t>Развитие, Банк идей, Добавить идею</t>
-  </si>
-  <si>
-    <t>idea_create</t>
-  </si>
-  <si>
-    <t>Профиль, Личный профиль, Личный профиль</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>Профиль, Основной функционал, Домашняя страница</t>
-  </si>
-  <si>
-    <t>Профиль, Основной функционал, Уведомления</t>
-  </si>
-  <si>
-    <t>account_notification</t>
-  </si>
-  <si>
-    <t>section_study</t>
-  </si>
-  <si>
-    <t>Новости, Обучение</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,395 +623,395 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
         <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
         <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
         <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
         <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
         <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
         <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/web-platform_22_01_dev/data/modules/actions.xlsx
+++ b/web-platform_22_01_dev/data/modules/actions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2A315-460C-485E-A90C-9088AD570E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E7634-42E9-4DFC-97B6-2490D75ABD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>ТИП:</t>
   </si>
@@ -265,19 +265,31 @@
   </si>
   <si>
     <t>module_modules</t>
+  </si>
+  <si>
+    <t>Новости, Обучение, Видео инструкции</t>
+  </si>
+  <si>
+    <t>video_study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,8 +312,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,10 +598,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,25 +953,25 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,10 +979,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,10 +1001,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,10 +1012,10 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,9 +1023,20 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>61</v>
       </c>
     </row>
